--- a/05-German/DE_kurz.xlsx
+++ b/05-German/DE_kurz.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Deutch</t>
   </si>
@@ -267,6 +267,30 @@
   </si>
   <si>
     <t>herec</t>
+  </si>
+  <si>
+    <t>dick</t>
+  </si>
+  <si>
+    <t>vastag</t>
+  </si>
+  <si>
+    <t>schlank</t>
+  </si>
+  <si>
+    <t>vekony</t>
+  </si>
+  <si>
+    <t>hasslich</t>
+  </si>
+  <si>
+    <t>csunya</t>
+  </si>
+  <si>
+    <t>klug - dumm</t>
+  </si>
+  <si>
+    <t>bolcs - hulye</t>
   </si>
 </sst>
 </file>
@@ -932,10 +956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,6 +1101,38 @@
         <v>82</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
